--- a/Схемы/IP-plan.xlsx
+++ b/Схемы/IP-plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Egorchik\Desktop\Схемы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8C35D9-EB34-46B6-AF0F-7D90224B3A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DEE278-89B8-491F-A368-CC3E64654C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2C511AF8-ECE7-4A57-9437-7260E4E62A40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C511AF8-ECE7-4A57-9437-7260E4E62A40}"/>
   </bookViews>
   <sheets>
     <sheet name="Филиалы" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="162">
   <si>
     <t>Филиал №1</t>
   </si>
@@ -443,9 +443,6 @@
     <t>200.1.4.1</t>
   </si>
   <si>
-    <t>Филиал №4</t>
-  </si>
-  <si>
     <t>DHCP (192.168.242.191)</t>
   </si>
   <si>
@@ -495,6 +492,36 @@
   </si>
   <si>
     <t>Оборудование провайдеров</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>Mikrotik 7.7</t>
+  </si>
+  <si>
+    <t>Mikrotik 7.14.2</t>
+  </si>
+  <si>
+    <t>vESR</t>
+  </si>
+  <si>
+    <t>Mikrotik RB2011UIAS-2HnD</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>Коммутатор (не управляемый)</t>
+  </si>
+  <si>
+    <t>Cisco L2</t>
+  </si>
+  <si>
+    <t>Главный офис</t>
   </si>
 </sst>
 </file>
@@ -531,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -591,11 +618,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -635,6 +688,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -665,7 +721,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -984,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776489EE-51C3-4D1F-B656-AB2C4D9674E2}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,12 +1068,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1020,7 +1091,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1034,19 +1105,19 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D4" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1058,7 +1129,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1070,7 +1141,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1153,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1096,19 +1167,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1191,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1132,7 +1203,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="4">
         <v>24</v>
@@ -1165,7 +1236,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D14" s="4">
         <v>24</v>
@@ -1179,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" s="4">
         <v>24</v>
@@ -1204,12 +1275,12 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
+      <c r="A19" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -1226,7 +1297,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1240,19 +1311,19 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1335,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1276,7 +1347,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1359,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="20"/>
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1300,7 +1371,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1383,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
@@ -1324,7 +1395,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="18" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1338,19 +1409,19 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="20"/>
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1433,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="20"/>
       <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1445,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="20"/>
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1457,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="20"/>
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
@@ -1398,7 +1469,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="20"/>
       <c r="B35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1481,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
@@ -1422,7 +1493,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="18" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1436,7 +1507,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1455,7 +1526,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D39" s="4">
         <v>25</v>
@@ -1469,7 +1540,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="4">
         <v>25</v>
@@ -1483,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="4">
         <v>25</v>
@@ -1497,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="4">
         <v>25</v>
@@ -1510,12 +1581,12 @@
       <c r="D43" s="6"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
+      <c r="A45" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -1532,7 +1603,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="18" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1546,19 +1617,19 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="20"/>
       <c r="B48" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="20"/>
       <c r="B49" s="3" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1641,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="3" t="s">
         <v>45</v>
       </c>
@@ -1582,7 +1653,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="20"/>
       <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
@@ -1594,7 +1665,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="20"/>
       <c r="B52" s="3" t="s">
         <v>47</v>
       </c>
@@ -1606,7 +1677,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="20"/>
       <c r="B53" s="3" t="s">
         <v>48</v>
       </c>
@@ -1618,7 +1689,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
+      <c r="A54" s="19"/>
       <c r="B54" s="3" t="s">
         <v>74</v>
       </c>
@@ -1630,7 +1701,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -1644,19 +1715,19 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D56" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="3" t="s">
         <v>7</v>
       </c>
@@ -1668,7 +1739,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="3" t="s">
         <v>45</v>
       </c>
@@ -1680,7 +1751,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="3" t="s">
         <v>46</v>
       </c>
@@ -1692,7 +1763,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="3" t="s">
         <v>47</v>
       </c>
@@ -1704,7 +1775,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+      <c r="A61" s="19"/>
       <c r="B61" s="3" t="s">
         <v>48</v>
       </c>
@@ -1723,7 +1794,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="4">
         <v>24</v>
@@ -1737,7 +1808,7 @@
         <v>20</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D63" s="4">
         <v>24</v>
@@ -1751,19 +1822,19 @@
         <v>20</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D64" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
+      <c r="A67" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
@@ -1780,7 +1851,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -1794,19 +1865,19 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D70" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="3" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1896,7 @@
         <v>77</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D72" s="8">
         <v>24</v>
@@ -1839,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D73" s="4">
         <v>24</v>
@@ -1891,31 +1962,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="2"/>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="M1" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="S1" s="22" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="S1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1968,7 +2039,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1980,7 +2051,7 @@
       <c r="D3" s="4">
         <v>24</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="25" t="s">
         <v>99</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -1992,7 +2063,7 @@
       <c r="J3" s="4">
         <v>30</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="25" t="s">
         <v>110</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -2004,7 +2075,7 @@
       <c r="P3" s="4">
         <v>30</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="25" t="s">
         <v>120</v>
       </c>
       <c r="T3" s="3" t="s">
@@ -2018,7 +2089,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2028,7 +2099,7 @@
       <c r="D4" s="4">
         <v>30</v>
       </c>
-      <c r="G4" s="25"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2038,7 +2109,7 @@
       <c r="J4" s="4">
         <v>30</v>
       </c>
-      <c r="M4" s="25"/>
+      <c r="M4" s="26"/>
       <c r="N4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2048,7 +2119,7 @@
       <c r="P4" s="4">
         <v>30</v>
       </c>
-      <c r="S4" s="25"/>
+      <c r="S4" s="26"/>
       <c r="T4" s="3" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2131,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="3" t="s">
         <v>82</v>
       </c>
@@ -2070,7 +2141,7 @@
       <c r="D5" s="4">
         <v>30</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="3" t="s">
         <v>91</v>
       </c>
@@ -2080,7 +2151,7 @@
       <c r="J5" s="4">
         <v>32</v>
       </c>
-      <c r="M5" s="26"/>
+      <c r="M5" s="27"/>
       <c r="N5" s="3" t="s">
         <v>91</v>
       </c>
@@ -2090,7 +2161,7 @@
       <c r="P5" s="4">
         <v>32</v>
       </c>
-      <c r="S5" s="25"/>
+      <c r="S5" s="26"/>
       <c r="T5" s="3" t="s">
         <v>82</v>
       </c>
@@ -2102,7 +2173,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="3" t="s">
         <v>83</v>
       </c>
@@ -2112,7 +2183,7 @@
       <c r="D6" s="4">
         <v>24</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>103</v>
       </c>
       <c r="H6" s="3" t="s">
@@ -2124,7 +2195,7 @@
       <c r="J6" s="4">
         <v>30</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="25" t="s">
         <v>111</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -2136,7 +2207,7 @@
       <c r="P6" s="4">
         <v>30</v>
       </c>
-      <c r="S6" s="26"/>
+      <c r="S6" s="27"/>
       <c r="T6" s="3" t="s">
         <v>121</v>
       </c>
@@ -2148,17 +2219,17 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4">
         <v>24</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="G7" s="24"/>
       <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2168,7 +2239,7 @@
       <c r="J7" s="4">
         <v>24</v>
       </c>
-      <c r="M7" s="25"/>
+      <c r="M7" s="26"/>
       <c r="N7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2178,7 +2249,7 @@
       <c r="P7" s="4">
         <v>24</v>
       </c>
-      <c r="S7" s="24" t="s">
+      <c r="S7" s="25" t="s">
         <v>126</v>
       </c>
       <c r="T7" s="3" t="s">
@@ -2192,7 +2263,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="12" t="s">
         <v>91</v>
       </c>
@@ -2202,7 +2273,7 @@
       <c r="D8" s="4">
         <v>32</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="16" t="s">
         <v>82</v>
       </c>
@@ -2212,7 +2283,7 @@
       <c r="J8" s="4">
         <v>24</v>
       </c>
-      <c r="M8" s="25"/>
+      <c r="M8" s="26"/>
       <c r="N8" s="16" t="s">
         <v>82</v>
       </c>
@@ -2222,7 +2293,7 @@
       <c r="P8" s="4">
         <v>24</v>
       </c>
-      <c r="S8" s="25"/>
+      <c r="S8" s="26"/>
       <c r="T8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2234,7 +2305,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2246,7 +2317,7 @@
       <c r="D9" s="4">
         <v>30</v>
       </c>
-      <c r="G9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="3" t="s">
         <v>91</v>
       </c>
@@ -2256,7 +2327,7 @@
       <c r="J9" s="4">
         <v>32</v>
       </c>
-      <c r="M9" s="26"/>
+      <c r="M9" s="27"/>
       <c r="N9" s="3" t="s">
         <v>91</v>
       </c>
@@ -2266,7 +2337,7 @@
       <c r="P9" s="4">
         <v>32</v>
       </c>
-      <c r="S9" s="26"/>
+      <c r="S9" s="27"/>
       <c r="T9" s="3" t="s">
         <v>121</v>
       </c>
@@ -2278,7 +2349,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -2296,7 +2367,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
-      <c r="S10" s="24" t="s">
+      <c r="S10" s="25" t="s">
         <v>130</v>
       </c>
       <c r="T10" s="3" t="s">
@@ -2310,7 +2381,7 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="3" t="s">
         <v>91</v>
       </c>
@@ -2328,7 +2399,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
-      <c r="S11" s="25"/>
+      <c r="S11" s="26"/>
       <c r="T11" s="3" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2411,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2360,7 +2431,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
-      <c r="S12" s="25"/>
+      <c r="S12" s="26"/>
       <c r="T12" s="3" t="s">
         <v>82</v>
       </c>
@@ -2372,7 +2443,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
@@ -2390,7 +2461,7 @@
       <c r="N13" s="5"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
-      <c r="S13" s="26"/>
+      <c r="S13" s="27"/>
       <c r="T13" s="3" t="s">
         <v>121</v>
       </c>
@@ -2402,7 +2473,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="3" t="s">
         <v>91</v>
       </c>
@@ -2498,30 +2569,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84F6587-696B-457E-BD05-1577012A49C6}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="G1" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="G1" s="27" t="s">
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="B2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="G2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="G3" s="3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>11</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>1</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="28"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
